--- a/Fulldata.xlsx
+++ b/Fulldata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Doutorado\20212\AtuaizaçãoRevisao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Article</t>
   </si>
@@ -33,6 +33,165 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
   </si>
 </sst>
 </file>
@@ -350,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,6 +531,271 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Fulldata.xlsx
+++ b/Fulldata.xlsx
@@ -9,10 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="QG1" sheetId="3" r:id="rId2"/>
+    <sheet name="QG2" sheetId="6" r:id="rId3"/>
+    <sheet name="QG3" sheetId="7" r:id="rId4"/>
+    <sheet name="FQ1" sheetId="8" r:id="rId5"/>
+    <sheet name="FQ2" sheetId="9" r:id="rId6"/>
+    <sheet name="FQ3" sheetId="10" r:id="rId7"/>
+    <sheet name="SQ1" sheetId="11" r:id="rId8"/>
+    <sheet name="SQ2" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="178">
   <si>
     <t>Article</t>
   </si>
@@ -192,19 +200,1027 @@
   </si>
   <si>
     <t>A53</t>
+  </si>
+  <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rhee et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2010)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rachuri et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2010)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Castellano et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2010)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Benta et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2010)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kuo and Tseng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2011)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mcduff et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2012)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lee et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2012)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Likamwa et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fernández et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alajmi et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acampora and Vitiello </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El Mawass and Kanjo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tan et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Den Broek </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wang and Tan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2014)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ayzenberg and Picard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2014)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Douiji and Mousanif </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saha et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hung et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shminan  and Othman </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Santos et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rubin et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yu et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mano et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Santos et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zenonos et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al Osman et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mottelson and Hornbaek </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hänsel et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banos et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quiroz et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2017)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Han and Mishra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2017)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dobbins et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patil and Surve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Koldijk et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zhao et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lee et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Heinisch et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghandeharioun et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chong et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alam et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dobbins and Fairclough </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nalepa et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uria-Rivas et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bailon et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kosch et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wang et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Li and Sano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Álvares et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jaiswal et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hitz et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2021)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2021)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tikadar and Bhattacharya </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2021)</t>
+    </r>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>Web of Science</t>
+  </si>
+  <si>
+    <t>ScienceDirect</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Periodical</t>
+  </si>
+  <si>
+    <t>Pupil location and movement measurement for efficient emotional sensibility analysis.</t>
+  </si>
+  <si>
+    <t>EmotionSense: A mobile phones based adaptive platform for experimental social psychology research.</t>
+  </si>
+  <si>
+    <t>Inter-ACT: An affective and contextually rich multimodal video corpus for studying interaction with robots</t>
+  </si>
+  <si>
+    <t>Secondary Emotions Deduction from Context</t>
+  </si>
+  <si>
+    <t>Recognizing the emotion of learners by physiological sensors to improve english learning performance</t>
+  </si>
+  <si>
+    <t>AffectAura: Emotional wellbeing reflection system</t>
+  </si>
+  <si>
+    <t>Towards unobtrusive emotion recognition for affective social communication</t>
+  </si>
+  <si>
+    <t>MoodScope: Building a mood sensor from smartphone usage patterns.</t>
+  </si>
+  <si>
+    <t>A probabilistic model for cognitive-affective user state awareness</t>
+  </si>
+  <si>
+    <t>Shopmobia: An Emotion-Based Shop Rating System</t>
+  </si>
+  <si>
+    <t>Interoperable neuro-fuzzy services for emotion-aware ambient intelligence.</t>
+  </si>
+  <si>
+    <t>A supermarket stress map</t>
+  </si>
+  <si>
+    <t>Towards incorporating affective feedback into context-aware intelligent environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Open Sensing and Acting Platform for Context-Aware Affective </t>
+  </si>
+  <si>
+    <t>Toward interactive context-aware affective educational recommendations in computer-assisted language learning</t>
+  </si>
+  <si>
+    <t>Dynamic student assessment to advocate personalized learning plan</t>
+  </si>
+  <si>
+    <t>Towards a mobile and wearable system for predicting panic attacks</t>
+  </si>
+  <si>
+    <t>An affect detection technique using mobile commodity sensors in the wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploiting IoT technologies for enhancing Health Smart Homes through patient identification and emotion recognition. </t>
+  </si>
+  <si>
+    <t>nforming intelligent user interfaces by inferring affective states from body postures in ubiquitous computing environments.</t>
+  </si>
+  <si>
+    <t>Ubiquitous emotion-aware computing.</t>
+  </si>
+  <si>
+    <t>Mobile humanoid agent with mood awareness for elderly care</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emotion Aware System for the Elderly.</t>
+  </si>
+  <si>
+    <t>Mood recognition at work using smartphones and wearable sensors.</t>
+  </si>
+  <si>
+    <t>A System for Frequent Event and Electrodermal Activity Labeling.</t>
+  </si>
+  <si>
+    <t>Ubiquitous Biofeedback Serious Game for Stress Management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Healthcare IoT-Based Affective State Mining Using a Deep Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t>Mobile music recommendations for runners based on location and emotions: The DJ-Running system</t>
+  </si>
+  <si>
+    <t>Human Behavior Analysis by Means of Multimodal Context Mining</t>
+  </si>
+  <si>
+    <t>Smartphone-Based Platform for Affect Monitoring through Flexibly Managed Experience Sampling Methods.</t>
+  </si>
+  <si>
+    <t>EmoChat: Bringing Multimodal Emotion Detection to Mobile Conversation</t>
+  </si>
+  <si>
+    <t>Context-aware emotion recognition in the wild using spatio-temporal and temporal-pyramid models</t>
+  </si>
+  <si>
+    <t>Intelligent Context Aware system for Recognizing Emotions from text</t>
+  </si>
+  <si>
+    <t>Signal Processing of Multimodal Mobile Lifelogging Data Towards Detecting Stress in Real-World Driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lifelogging Platform Towards Detecting Negative Emotions in Everyday Life using Wearable Devices</t>
+  </si>
+  <si>
+    <t>Large scale mood and stress self-Assessments on a smartwatch.</t>
+  </si>
+  <si>
+    <t>Angry or Climbing Stairs? Towards Physiological Emotion Recognition</t>
+  </si>
+  <si>
+    <t>Sharing geotagged pictures for an Emotion-based Recommender System</t>
+  </si>
+  <si>
+    <t>A smartphone-based personalized activity recommender system for patients with depression</t>
+  </si>
+  <si>
+    <t>Detecting Work Stress in Offices by Combining Unobtrusive Sensors.</t>
+  </si>
+  <si>
+    <t>An Emotion-Aware Wellbeing Chatbot</t>
+  </si>
+  <si>
+    <t>Emotions on the Go: Mobile Emotion Assessment in Real-Time using Facial Expressions.</t>
+  </si>
+  <si>
+    <t>Attention-Guided Context-aware Emotional State Recognition</t>
+  </si>
+  <si>
+    <t>EmotionSensing: Predicting mobile user emotions</t>
+  </si>
+  <si>
+    <t>Extraction and Interpretation of Deep Autoencoder-based Temporal Features from Wearables for Forecasting Personalized Mood, Health, and Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOT in HealthCare: Smart Emotion Detector Utilizing Wearable Bio </t>
+  </si>
+  <si>
+    <t>Mobile platform for affective context-aware systems</t>
+  </si>
+  <si>
+    <t>Emotion-recognition using smart watch accelerometer data: Preliminary findings</t>
+  </si>
+  <si>
+    <t>Detection of Affective States of the Students in a Blended Learning Environment Comprising of Smartphones.</t>
+  </si>
+  <si>
+    <t>EmotionSense: An Adaptive Emotion Recognition System Based on Wearable Smart Devices</t>
+  </si>
+  <si>
+    <t>EmotionSense: Emotion Recognition Based on Wearable Wristband.</t>
+  </si>
+  <si>
+    <t>Context-Aware Emotion Recognition Networks.</t>
+  </si>
+  <si>
+    <t>Which domains have used context information in recognition of affective states?</t>
+  </si>
+  <si>
+    <t>Which contextual information and affective channels are used as parameters for the recognition of affective states?</t>
+  </si>
+  <si>
+    <t>Which computational resources are used to obtain affective states and contextual information?</t>
+  </si>
+  <si>
+    <t>How and which affective states are considered by the studies?</t>
+  </si>
+  <si>
+    <t>Which studies consider affective states for the personalization of services?</t>
+  </si>
+  <si>
+    <t>Which methods and algorithms are used in the classification and prediction of affective states?</t>
+  </si>
+  <si>
+    <t>When and where have the studies been published?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +1231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,12 +1239,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,294 +1553,6476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2011</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="C53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="91.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fulldata.xlsx
+++ b/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="339">
   <si>
     <t>Article</t>
   </si>
@@ -1177,12 +1177,495 @@
   <si>
     <t>When and where have the studies been published?</t>
   </si>
+  <si>
+    <t>Smart Environments</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Social Comunication</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Affective Signs</t>
+  </si>
+  <si>
+    <t>Phisiological</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Phisiological, Voice</t>
+  </si>
+  <si>
+    <t>Phisiological, Visual</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Phisiological, Voice, Visual</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Phisiological, Behavior</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Visual, Text</t>
+  </si>
+  <si>
+    <t>Self-report</t>
+  </si>
+  <si>
+    <t>Context Explored</t>
+  </si>
+  <si>
+    <t>Activity, Location, Time, Identity</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Activity, Location</t>
+  </si>
+  <si>
+    <t>Activity, Location, Time</t>
+  </si>
+  <si>
+    <t>Activity, Identity</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location, Time, Identity</t>
+  </si>
+  <si>
+    <t>Time, Identity</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Activity, Time</t>
+  </si>
+  <si>
+    <t>Location, Identity</t>
+  </si>
+  <si>
+    <t>Location, Time</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Sensors, Camera, Microphone</t>
+  </si>
+  <si>
+    <t>Wearable Sensors</t>
+  </si>
+  <si>
+    <t>Smartroom, Smartphone, Tablet</t>
+  </si>
+  <si>
+    <t>Camera, Microphone</t>
+  </si>
+  <si>
+    <t>Sensors, Microphone</t>
+  </si>
+  <si>
+    <t>Sensors, Cameras</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Wearable Smartwatch</t>
+  </si>
+  <si>
+    <t>Wearable Sensors, Camera, Microphone, Smartphone</t>
+  </si>
+  <si>
+    <t>Wearable, Smartwatch</t>
+  </si>
+  <si>
+    <t>Wearable SmartBand</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Wearable SmartBand, Sensors</t>
+  </si>
+  <si>
+    <t>Collected data</t>
+  </si>
+  <si>
+    <t>Pupil alteration</t>
+  </si>
+  <si>
+    <t>Usage (voice)</t>
+  </si>
+  <si>
+    <t>Image, actions</t>
+  </si>
+  <si>
+    <t>Image, accelerometer, gyroscope</t>
+  </si>
+  <si>
+    <t>GSR</t>
+  </si>
+  <si>
+    <t>EDA, GPS, voice, face</t>
+  </si>
+  <si>
+    <t>Usage (typing)</t>
+  </si>
+  <si>
+    <t>Usage (acceleration, light)</t>
+  </si>
+  <si>
+    <t>HR, GSR</t>
+  </si>
+  <si>
+    <t>GSR, EDA, NFC</t>
+  </si>
+  <si>
+    <t>Light, temperature, climate</t>
+  </si>
+  <si>
+    <t>EDA, NFC</t>
+  </si>
+  <si>
+    <t>Image, voice</t>
+  </si>
+  <si>
+    <t>ECG, voice</t>
+  </si>
+  <si>
+    <t>Usage (keyboard, voice)</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>Usage (actions)</t>
+  </si>
+  <si>
+    <t>ST, GSR, Oximeter</t>
+  </si>
+  <si>
+    <t>HR, GPS, accelerometer</t>
+  </si>
+  <si>
+    <t>EEG</t>
+  </si>
+  <si>
+    <t>Image, motion</t>
+  </si>
+  <si>
+    <t>HR, GSR, ST</t>
+  </si>
+  <si>
+    <t>ECG, PPG, ST</t>
+  </si>
+  <si>
+    <t>ECG, accelerometer. EDA, HR</t>
+  </si>
+  <si>
+    <t>Image, voice, GPS, Accelerometer, gyroscope</t>
+  </si>
+  <si>
+    <t>Accelerometer, gyroscope</t>
+  </si>
+  <si>
+    <t>Usage (interactions)</t>
+  </si>
+  <si>
+    <t>ECG, GSR</t>
+  </si>
+  <si>
+    <t>PPG, EDA, ST</t>
+  </si>
+  <si>
+    <t>Image, context</t>
+  </si>
+  <si>
+    <t>ST, EDA, BVP</t>
+  </si>
+  <si>
+    <t>Usage (GPS)</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>EMG, EDA, ECG</t>
+  </si>
+  <si>
+    <t>ECG, PPG, HR</t>
+  </si>
+  <si>
+    <t>HR, HRV, GSR, EDA</t>
+  </si>
+  <si>
+    <t>Usage (frontal camera)</t>
+  </si>
+  <si>
+    <t>BVP, EDA, ST</t>
+  </si>
+  <si>
+    <t>GSR, TS</t>
+  </si>
+  <si>
+    <t>GSR, BVP</t>
+  </si>
+  <si>
+    <t>Valence/excitement</t>
+  </si>
+  <si>
+    <t>Anger, disgust, fear, sad, happy e neutral</t>
+  </si>
+  <si>
+    <t>Satisfaction, disappointment, frustration, hope</t>
+  </si>
+  <si>
+    <t>Anger, disgust, fear, sad, happy, surprise e neutral</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Happy, frustration, relax</t>
+  </si>
+  <si>
+    <t>Stress (negative valences)</t>
+  </si>
+  <si>
+    <t>Valence/Excitement</t>
+  </si>
+  <si>
+    <t>Anger, disgust, fear, happy, sad, surprise, neutral, valences</t>
+  </si>
+  <si>
+    <t>Positive valences (motivation)</t>
+  </si>
+  <si>
+    <t>Relax, anxious</t>
+  </si>
+  <si>
+    <t>Negative valence (panic)</t>
+  </si>
+  <si>
+    <t>Frustration, boredom e engagement</t>
+  </si>
+  <si>
+    <t>Anger, fear, happy, sad, surprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy, relax, tired, depression, tense </t>
+  </si>
+  <si>
+    <t>Anger, Happy, Sad and Neutral</t>
+  </si>
+  <si>
+    <t>Happy, sad</t>
+  </si>
+  <si>
+    <t>Surprise, happy, sad, disgust, relax, anger, fear, confused, boredom, stress</t>
+  </si>
+  <si>
+    <t>Negative valences</t>
+  </si>
+  <si>
+    <t>Anger, disgust, fear, happy, sad, surprise and neutral</t>
+  </si>
+  <si>
+    <t>Anger, disgust, fear, happy, sad, surprise, neutral</t>
+  </si>
+  <si>
+    <t>Happy, relax, disgust, sad e neutral</t>
+  </si>
+  <si>
+    <t>Happy, sad, surprise, fear, disgust, anger</t>
+  </si>
+  <si>
+    <t>Mood,</t>
+  </si>
+  <si>
+    <t>Aggressive, angry, happy, sad, relax</t>
+  </si>
+  <si>
+    <t>Disgusted, sad, surprised, angry, neutral</t>
+  </si>
+  <si>
+    <t>Satisfied, happy</t>
+  </si>
+  <si>
+    <t>Anger, disgust, fear, happy, neutral, sad, surprise</t>
+  </si>
+  <si>
+    <t>Learning settings</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>Emotion regulation</t>
+  </si>
+  <si>
+    <t>Learning object recommendation</t>
+  </si>
+  <si>
+    <t>Respiratory biofeedback</t>
+  </si>
+  <si>
+    <t>Notifications for caregivers and entertainment</t>
+  </si>
+  <si>
+    <t>Notifications for those responsible for the patient´s health</t>
+  </si>
+  <si>
+    <t>Stress regulation</t>
+  </si>
+  <si>
+    <t>Biofeedback</t>
+  </si>
+  <si>
+    <t>Micro interventions for well being</t>
+  </si>
+  <si>
+    <t>emotional suppost and regulation</t>
+  </si>
+  <si>
+    <t>Music recommendation and playback</t>
+  </si>
+  <si>
+    <t>Emotion based location</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RF, SVM, NB, ANN</t>
+  </si>
+  <si>
+    <t>ANN (Perceptron)</t>
+  </si>
+  <si>
+    <t>A-NNS</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>KNN, Ball tree</t>
+  </si>
+  <si>
+    <t>LSTM, 3DCNN</t>
+  </si>
+  <si>
+    <t>SVM/NB/DT/RF</t>
+  </si>
+  <si>
+    <t>LDA, DT, KNN</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>LDA, QDA, DT</t>
+  </si>
+  <si>
+    <t>Ensemble (KNN)</t>
+  </si>
+  <si>
+    <t>NB, SVM, DT, RF, ANN</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>AFNN</t>
+  </si>
+  <si>
+    <t>DT, RF, KNN</t>
+  </si>
+  <si>
+    <t>RF, Logistic regression</t>
+  </si>
+  <si>
+    <t>KNN, DT</t>
+  </si>
+  <si>
+    <t>CNN (ART)</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Multiple linear regression</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>ANFIS</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>How did the studies that recognize context-aware affective states evolve in recent years?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,6 +1705,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1231,7 +1721,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1248,11 +1738,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1273,6 +1772,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,19 +2071,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +2103,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -1607,7 +2123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -1627,7 +2143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -1647,7 +2163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -1667,7 +2183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
@@ -1687,7 +2203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -1707,7 +2223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
@@ -1727,7 +2243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
@@ -1747,7 +2263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -1767,7 +2283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
@@ -1787,7 +2303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
@@ -1807,7 +2323,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
@@ -1827,7 +2343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
@@ -1847,7 +2363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
@@ -1867,7 +2383,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
@@ -1887,7 +2403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
@@ -1907,7 +2423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
@@ -1927,7 +2443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
@@ -1947,7 +2463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
@@ -1967,7 +2483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -1987,7 +2503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
@@ -2007,7 +2523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
@@ -2027,7 +2543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
@@ -2047,7 +2563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
@@ -2067,7 +2583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
@@ -2087,7 +2603,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
@@ -2107,7 +2623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
@@ -2127,7 +2643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
@@ -2147,7 +2663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -2167,7 +2683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
@@ -2187,7 +2703,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -2207,7 +2723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -2227,7 +2743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
@@ -2247,7 +2763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
@@ -2267,7 +2783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
@@ -2287,7 +2803,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
@@ -2307,7 +2823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
@@ -2327,7 +2843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
@@ -2347,7 +2863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
@@ -2367,7 +2883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
@@ -2387,7 +2903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
@@ -2407,7 +2923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
@@ -2427,7 +2943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -2447,7 +2963,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
@@ -2467,7 +2983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
@@ -2487,7 +3003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
@@ -2507,7 +3023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
@@ -2527,7 +3043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
@@ -2547,7 +3063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
@@ -2567,7 +3083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
@@ -2587,7 +3103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
@@ -2607,7 +3123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
@@ -2627,7 +3143,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
@@ -2658,18 +3174,18 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2683,638 +3199,744 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
@@ -3327,671 +3949,898 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>130</v>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>162</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>153</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4002,18 +4851,18 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="73.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4023,643 +4872,857 @@
       <c r="C1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
     </row>
@@ -4673,19 +5736,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="72.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4699,638 +5762,744 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
@@ -5345,31 +6514,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -5381,7 +6552,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -5393,7 +6564,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -5405,7 +6576,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -5417,33 +6588,33 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
@@ -5455,7 +6626,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
@@ -5467,7 +6638,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -5479,7 +6650,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
@@ -5491,7 +6662,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
@@ -5503,7 +6674,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
@@ -5515,7 +6686,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
@@ -5527,7 +6698,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5539,19 +6710,21 @@
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
@@ -5563,7 +6736,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
@@ -5575,7 +6748,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
@@ -5587,31 +6760,35 @@
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
@@ -5623,55 +6800,63 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
@@ -5683,19 +6868,21 @@
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
@@ -5707,7 +6894,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -5719,7 +6906,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
@@ -5731,7 +6918,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -5743,7 +6930,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -5755,7 +6942,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
@@ -5767,7 +6954,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
@@ -5779,7 +6966,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
@@ -5791,7 +6978,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
@@ -5803,7 +6990,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
@@ -5815,7 +7002,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
@@ -5827,19 +7014,21 @@
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
@@ -5851,7 +7040,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
@@ -5863,7 +7052,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
@@ -5875,7 +7064,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -5887,19 +7076,21 @@
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
@@ -5911,7 +7102,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
@@ -5923,7 +7114,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
@@ -5935,7 +7126,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
@@ -5947,19 +7138,21 @@
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
@@ -5971,19 +7164,21 @@
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
@@ -5995,7 +7190,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
@@ -6017,19 +7212,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +7238,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -6055,7 +7250,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -6067,7 +7262,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -6079,19 +7274,21 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
@@ -6103,79 +7300,91 @@
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="14" t="s">
+        <v>333</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="14" t="s">
+        <v>333</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="14" t="s">
+        <v>336</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
@@ -6187,7 +7396,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
@@ -6199,7 +7408,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6211,19 +7420,21 @@
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
@@ -6235,7 +7446,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
@@ -6247,19 +7458,21 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
@@ -6271,19 +7484,21 @@
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
@@ -6295,7 +7510,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
@@ -6307,7 +7522,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
@@ -6319,7 +7534,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
@@ -6331,7 +7546,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
@@ -6343,19 +7558,21 @@
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
@@ -6367,19 +7584,21 @@
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -6391,7 +7610,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
@@ -6403,19 +7622,21 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -6427,79 +7648,91 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="14" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="14" t="s">
+        <v>326</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="14" t="s">
+        <v>328</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
@@ -6511,55 +7744,63 @@
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="14" t="s">
+        <v>321</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
@@ -6571,7 +7812,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
@@ -6583,98 +7824,114 @@
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="14" t="s">
+        <v>313</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="14" t="s">
+        <v>316</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="14" t="s">
+        <v>318</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="14" t="s">
+        <v>319</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
@@ -6690,32 +7947,32 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>177</v>
+      <c r="C1" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -6727,7 +7984,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -6739,7 +7996,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -6751,7 +8008,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -6763,7 +8020,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
@@ -6775,7 +8032,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -6786,7 +8043,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
@@ -6798,7 +8055,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
@@ -6810,7 +8067,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -6822,7 +8079,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
@@ -6834,7 +8091,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
@@ -6846,7 +8103,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
@@ -6858,7 +8115,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
@@ -6870,7 +8127,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6882,7 +8139,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
@@ -6894,7 +8151,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
@@ -6906,7 +8163,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
@@ -6918,7 +8175,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
@@ -6930,7 +8187,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
@@ -6942,7 +8199,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -6954,7 +8211,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
@@ -6966,7 +8223,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
@@ -6978,7 +8235,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
@@ -6990,7 +8247,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
@@ -7002,7 +8259,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
@@ -7014,7 +8271,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
@@ -7026,7 +8283,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
@@ -7038,7 +8295,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
@@ -7050,7 +8307,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -7062,7 +8319,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
@@ -7074,7 +8331,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7086,7 +8343,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -7098,7 +8355,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
@@ -7110,7 +8367,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
@@ -7122,7 +8379,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
@@ -7134,7 +8391,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
@@ -7146,7 +8403,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
@@ -7158,7 +8415,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
@@ -7170,7 +8427,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
@@ -7182,7 +8439,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
@@ -7194,7 +8451,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
@@ -7206,7 +8463,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
@@ -7218,7 +8475,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -7230,7 +8487,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
@@ -7242,7 +8499,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
@@ -7254,7 +8511,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
@@ -7266,7 +8523,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
@@ -7278,7 +8535,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
@@ -7290,7 +8547,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
@@ -7302,7 +8559,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
@@ -7314,7 +8571,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
@@ -7326,7 +8583,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
@@ -7338,7 +8595,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
@@ -7364,15 +8621,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7386,7 +8643,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -7398,7 +8655,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -7410,7 +8667,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -7422,7 +8679,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -7434,7 +8691,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
@@ -7446,7 +8703,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -7457,7 +8714,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
@@ -7469,7 +8726,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
@@ -7481,7 +8738,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -7493,7 +8750,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
@@ -7505,7 +8762,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
@@ -7517,7 +8774,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
@@ -7529,7 +8786,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
@@ -7541,7 +8798,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
@@ -7553,7 +8810,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
@@ -7565,7 +8822,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
@@ -7577,7 +8834,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>151</v>
       </c>
@@ -7589,7 +8846,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>131</v>
       </c>
@@ -7601,7 +8858,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>157</v>
       </c>
@@ -7613,7 +8870,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -7625,7 +8882,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
@@ -7637,7 +8894,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
@@ -7649,7 +8906,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
@@ -7661,7 +8918,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
@@ -7673,7 +8930,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
@@ -7685,7 +8942,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
@@ -7697,7 +8954,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
@@ -7709,7 +8966,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
@@ -7721,7 +8978,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -7733,7 +8990,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
@@ -7745,7 +9002,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7757,7 +9014,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -7769,7 +9026,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>153</v>
       </c>
@@ -7781,7 +9038,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>164</v>
       </c>
@@ -7793,7 +9050,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
@@ -7805,7 +9062,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>169</v>
       </c>
@@ -7817,7 +9074,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>170</v>
       </c>
@@ -7829,7 +9086,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
@@ -7841,7 +9098,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>159</v>
       </c>
@@ -7853,7 +9110,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
@@ -7865,7 +9122,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
@@ -7877,7 +9134,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
@@ -7889,7 +9146,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -7901,7 +9158,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
@@ -7913,7 +9170,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
@@ -7925,7 +9182,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
@@ -7937,7 +9194,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>168</v>
       </c>
@@ -7949,7 +9206,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
@@ -7961,7 +9218,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
@@ -7973,7 +9230,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
@@ -7985,7 +9242,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
@@ -7997,7 +9254,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
@@ -8009,7 +9266,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>167</v>
       </c>
